--- a/modeling/report/02-logistic-odds-ratios.xlsx
+++ b/modeling/report/02-logistic-odds-ratios.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.145842450816184</v>
+        <v>2.369201966689956</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.633358726769917</v>
+        <v>1.639357045132406</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.555913962006821</v>
+        <v>1.492315716962222</v>
       </c>
     </row>
     <row r="5">
@@ -494,98 +494,98 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.337121257707364</v>
+        <v>1.4669533166637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>StreamingTV_Yes</t>
+          <t>MonthlyCharges</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.325961273725601</v>
+        <v>1.248832010820985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SeniorCitizen</t>
+          <t>StreamingTV_Yes</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.283789169942248</v>
+        <v>1.187000114467345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TotalCharges</t>
+          <t>SeniorCitizen</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.245693478498101</v>
+        <v>1.154045085851549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PaymentMethod_Mailed check</t>
+          <t>TotalCharges</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.104670690856989</v>
+        <v>1.071461542074566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MonthlyCharges</t>
+          <t>MultipleLines_No phone service</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.088586988520192</v>
+        <v>1.061022257005316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MultipleLines_Yes</t>
+          <t>PaymentMethod_Mailed check</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.042598526618528</v>
+        <v>1.034394249066577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MultipleLines_No phone service</t>
+          <t>MultipleLines_Yes</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.035111606240905</v>
+        <v>1.018369343707492</v>
       </c>
     </row>
     <row r="13">
@@ -598,150 +598,150 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.015554546092614</v>
+        <v>0.9952651782900562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PaymentMethod_Credit card (automatic)</t>
+          <t>Dependents</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9621667868636813</v>
+        <v>0.9791421507509538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dependents</t>
+          <t>PaymentMethod_Credit card (automatic)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9473646520053585</v>
+        <v>0.977720074312095</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DeviceProtection_Yes</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9355378464801896</v>
+        <v>0.954794594738386</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>DeviceProtection_No internet service</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9208704142204991</v>
+        <v>0.8992023832392301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DeviceProtection_No internet service</t>
+          <t>TechSupport_No internet service</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8772197782008782</v>
+        <v>0.8992023832392301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TechSupport_No internet service</t>
+          <t>StreamingTV_No internet service</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8772197782008782</v>
+        <v>0.8992023832392301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>StreamingTV_No internet service</t>
+          <t>OnlineSecurity_No internet service</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8772197782008782</v>
+        <v>0.8992023832392301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OnlineSecurity_No internet service</t>
+          <t>StreamingMovies_No internet service</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8772197782008782</v>
+        <v>0.8992023832392301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>StreamingMovies_No internet service</t>
+          <t>InternetService_No</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8772197782008782</v>
+        <v>0.8992023832392301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>InternetService_No</t>
+          <t>OnlineBackup_No internet service</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8772197782008782</v>
+        <v>0.8992023832392301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OnlineBackup_No internet service</t>
+          <t>DeviceProtection_Yes</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8772197782008782</v>
+        <v>0.8472264137546766</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7836023713334871</v>
+        <v>0.7851056587693628</v>
       </c>
     </row>
     <row r="26">
@@ -767,33 +767,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7563425277650819</v>
+        <v>0.7372567734152204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OnlineSecurity_Yes</t>
+          <t>TechSupport_Yes</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6952354516484702</v>
+        <v>0.7145974286910856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TechSupport_Yes</t>
+          <t>OnlineSecurity_Yes</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.659380914641262</v>
+        <v>0.6394647368035767</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3660260335714711</v>
+        <v>0.4373232425062183</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3602155390277323</v>
+        <v>0.3739010165844767</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1649222419427319</v>
+        <v>0.1991275937305625</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/report/02-logistic-odds-ratios.xlsx
+++ b/modeling/report/02-logistic-odds-ratios.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.369201966689956</v>
+        <v>2.145842450816183</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.639357045132406</v>
+        <v>1.633358726769917</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.492315716962222</v>
+        <v>1.555913962006821</v>
       </c>
     </row>
     <row r="5">
@@ -494,98 +494,98 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.4669533166637</v>
+        <v>1.337121257707364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MonthlyCharges</t>
+          <t>StreamingTV_Yes</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.248832010820985</v>
+        <v>1.325961273725601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>StreamingTV_Yes</t>
+          <t>SeniorCitizen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.187000114467345</v>
+        <v>1.283789169942248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SeniorCitizen</t>
+          <t>TotalCharges</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.154045085851549</v>
+        <v>1.245693478498101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TotalCharges</t>
+          <t>PaymentMethod_Mailed check</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.071461542074566</v>
+        <v>1.104670690856989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MultipleLines_No phone service</t>
+          <t>MonthlyCharges</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.061022257005316</v>
+        <v>1.088586988520192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PaymentMethod_Mailed check</t>
+          <t>MultipleLines_Yes</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.034394249066577</v>
+        <v>1.042598526618528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MultipleLines_Yes</t>
+          <t>MultipleLines_No phone service</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.018369343707492</v>
+        <v>1.035111606240906</v>
       </c>
     </row>
     <row r="13">
@@ -598,150 +598,150 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9952651782900562</v>
+        <v>1.015554546092614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dependents</t>
+          <t>PaymentMethod_Credit card (automatic)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9791421507509538</v>
+        <v>0.9621667868636813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PaymentMethod_Credit card (automatic)</t>
+          <t>Dependents</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.977720074312095</v>
+        <v>0.9473646520053585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>DeviceProtection_Yes</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.954794594738386</v>
+        <v>0.9355378464801896</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DeviceProtection_No internet service</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8992023832392301</v>
+        <v>0.920870414220499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TechSupport_No internet service</t>
+          <t>DeviceProtection_No internet service</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8992023832392301</v>
+        <v>0.8772197782008782</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>StreamingTV_No internet service</t>
+          <t>TechSupport_No internet service</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8992023832392301</v>
+        <v>0.8772197782008782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OnlineSecurity_No internet service</t>
+          <t>StreamingTV_No internet service</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8992023832392301</v>
+        <v>0.8772197782008782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>StreamingMovies_No internet service</t>
+          <t>OnlineSecurity_No internet service</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8992023832392301</v>
+        <v>0.8772197782008782</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>InternetService_No</t>
+          <t>StreamingMovies_No internet service</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8992023832392301</v>
+        <v>0.8772197782008782</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OnlineBackup_No internet service</t>
+          <t>InternetService_No</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8992023832392301</v>
+        <v>0.8772197782008782</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DeviceProtection_Yes</t>
+          <t>OnlineBackup_No internet service</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8472264137546766</v>
+        <v>0.8772197782008782</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7851056587693628</v>
+        <v>0.7836023713334871</v>
       </c>
     </row>
     <row r="26">
@@ -767,33 +767,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7372567734152204</v>
+        <v>0.756342527765082</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TechSupport_Yes</t>
+          <t>OnlineSecurity_Yes</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7145974286910856</v>
+        <v>0.6952354516484701</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OnlineSecurity_Yes</t>
+          <t>TechSupport_Yes</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6394647368035767</v>
+        <v>0.6593809146412619</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4373232425062183</v>
+        <v>0.3660260335714712</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3739010165844767</v>
+        <v>0.3602155390277323</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1991275937305625</v>
+        <v>0.1649222419427319</v>
       </c>
     </row>
   </sheetData>
